--- a/data/Subset 1/Math JP2 transcript.xlsx
+++ b/data/Subset 1/Math JP2 transcript.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
